--- a/target/test-classes/testdata/Test data automation.xlsx
+++ b/target/test-classes/testdata/Test data automation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="10515" windowHeight="4695" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="10515" windowHeight="4695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>username</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>T-shirts</t>
+  </si>
+  <si>
+    <t>rohit@xyz.com</t>
   </si>
 </sst>
 </file>
@@ -466,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +514,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -551,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
